--- a/Excel reader/B7.xlsx
+++ b/Excel reader/B7.xlsx
@@ -446,7 +446,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>181B218</t>
+          <t>181b218</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -464,7 +464,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>181B224</t>
+          <t>181b224</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -482,7 +482,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>181B178</t>
+          <t>181b178</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -500,7 +500,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>181B209</t>
+          <t>181b209</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -518,7 +518,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>181B212</t>
+          <t>181b212</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -536,7 +536,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>181B205</t>
+          <t>181b205</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -554,7 +554,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>181B204</t>
+          <t>181b204</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -572,7 +572,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>181B193</t>
+          <t>181b193</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -590,7 +590,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>181B220</t>
+          <t>181b220</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -608,7 +608,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>181B221</t>
+          <t>181b221</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -626,7 +626,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>181B200</t>
+          <t>181b200</t>
         </is>
       </c>
       <c r="B12" t="n">
